--- a/artfynd/A 33878-2019.xlsx
+++ b/artfynd/A 33878-2019.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3924724</v>
+        <v>100951327</v>
       </c>
       <c r="B3" t="n">
-        <v>99397</v>
+        <v>99398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -845,6 +845,8 @@
           <t>blomning</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Min källa, Stingsberget, Vstm</t>
@@ -857,7 +859,7 @@
         <v>6624057.293507727</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -881,22 +883,27 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2007-05-17</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2007-05-17</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>En blomma utslagen, övriga i knopp.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -905,12 +912,13 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Blandskog</t>
+          <t>Lövlund</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -1444,14 +1452,14 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>65826231</v>
+        <v>100951332</v>
       </c>
       <c r="B8" t="n">
         <v>98431</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1477,18 +1485,15 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>blomknopp</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Min källa, Stingsberget, Vstm</t>
@@ -1501,7 +1506,7 @@
         <v>6624057.293507727</v>
       </c>
       <c r="S8" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1525,27 +1530,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2017-05-24</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2017-05-24</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>14+2+1, några med blomknopp</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1554,6 +1554,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
